--- a/Parameters-Estimation/Lx_Parameters_Estimation/1-Trained-Models/Iteration-Results/test_rf.xlsx
+++ b/Parameters-Estimation/Lx_Parameters_Estimation/1-Trained-Models/Iteration-Results/test_rf.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>RMSE</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Corr Coeff</t>
+  </si>
+  <si>
+    <t>NRMSE</t>
   </si>
 </sst>
 </file>
@@ -79,7 +82,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="true"/>
@@ -87,8 +90,9 @@
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
     <col min="4" max="4" width="12.7109375" customWidth="true"/>
     <col min="5" max="5" width="12.7109375" customWidth="true"/>
-    <col min="6" max="6" width="12.7109375" customWidth="true"/>
-    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="14.42578125" customWidth="true"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -113,120 +117,138 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>3.4025013353169786</v>
+        <v>4.8250205193736733</v>
       </c>
       <c r="B2" s="0">
-        <v>2.8813649983802998</v>
+        <v>4.2065677655677662</v>
       </c>
       <c r="C2" s="0">
-        <v>0.5667672882560717</v>
+        <v>0.49009782689668291</v>
       </c>
       <c r="D2" s="0">
-        <v>0.75283948372549625</v>
+        <v>0.70006987286747524</v>
       </c>
       <c r="E2" s="0">
-        <v>0.78984786139810848</v>
+        <v>0.72427130949858232</v>
       </c>
       <c r="F2" s="0">
-        <v>0.4332327117439283</v>
+        <v>0.50990217310331709</v>
       </c>
       <c r="G2" s="0">
-        <v>0.9735924240448719</v>
+        <v>0.81455566098744159</v>
+      </c>
+      <c r="H2" s="0">
+        <v>0.30654514100213937</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>2.6845102574664721</v>
+        <v>4.8315752399344785</v>
       </c>
       <c r="B3" s="0">
-        <v>2.2708403361344538</v>
+        <v>3.8697759259259259</v>
       </c>
       <c r="C3" s="0">
-        <v>0.56319125683359672</v>
+        <v>1.0520297481319136</v>
       </c>
       <c r="D3" s="0">
-        <v>0.75046069639495228</v>
+        <v>1.0256850140915161</v>
       </c>
       <c r="E3" s="0">
-        <v>0.66012800469024824</v>
+        <v>1.0358072606868107</v>
       </c>
       <c r="F3" s="0">
-        <v>0.43680874316640328</v>
+        <v>-0.052029748131913633</v>
       </c>
       <c r="G3" s="0">
-        <v>0.80429083714185357</v>
+        <v>0.0016253820736346842</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.36110427802200884</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>3.5285758017581133</v>
+        <v>3.4651575951410609</v>
       </c>
       <c r="B4" s="0">
-        <v>2.5971567542646357</v>
+        <v>3.037849276583791</v>
       </c>
       <c r="C4" s="0">
-        <v>0.51014681348961377</v>
+        <v>0.71143510683768885</v>
       </c>
       <c r="D4" s="0">
-        <v>0.7142456254606071</v>
+        <v>0.84346612666881227</v>
       </c>
       <c r="E4" s="0">
-        <v>0.73118151865558423</v>
+        <v>0.87697727384058621</v>
       </c>
       <c r="F4" s="0">
-        <v>0.48985318651038623</v>
+        <v>0.28856489316231115</v>
       </c>
       <c r="G4" s="0">
-        <v>0.86908494783871282</v>
+        <v>0.72563142866077868</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0.28924520827554767</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>1.7073110905496456</v>
+        <v>3.5724667420729541</v>
       </c>
       <c r="B5" s="0">
-        <v>1.5135461516719275</v>
+        <v>3.0515076264880938</v>
       </c>
       <c r="C5" s="0">
-        <v>0.25878117541848539</v>
+        <v>0.80604023236770828</v>
       </c>
       <c r="D5" s="0">
-        <v>0.50870539157599404</v>
+        <v>0.89779743392800371</v>
       </c>
       <c r="E5" s="0">
-        <v>0.5733129362393663</v>
+        <v>0.97058130613488969</v>
       </c>
       <c r="F5" s="0">
-        <v>0.74121882458151456</v>
+        <v>0.19395976763229172</v>
       </c>
       <c r="G5" s="0">
-        <v>0.8956993287508852</v>
+        <v>0.84687427588894859</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0.24335604510033751</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>4.564641304967723</v>
+        <v>3.3285098047875632</v>
       </c>
       <c r="B6" s="0">
-        <v>4.0812253793215341</v>
+        <v>2.6083217862252175</v>
       </c>
       <c r="C6" s="0">
-        <v>0.62453391371776124</v>
+        <v>0.34801904608118711</v>
       </c>
       <c r="D6" s="0">
-        <v>0.79027458121703575</v>
+        <v>0.5899313909949081</v>
       </c>
       <c r="E6" s="0">
-        <v>0.81105432816405698</v>
+        <v>0.56801432626855775</v>
       </c>
       <c r="F6" s="0">
-        <v>0.37546608628223876</v>
+        <v>0.65198095391881283</v>
       </c>
       <c r="G6" s="0">
-        <v>0.95441200156631067</v>
+        <v>0.87289665666725036</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0.19742051036699659</v>
       </c>
     </row>
   </sheetData>
